--- a/7/2/2/2/Resto del mundo 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/2/2/Resto del mundo 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>Serie</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH74"/>
+  <dimension ref="A1:AH75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8292,7 +8295,7 @@
         <v>105</v>
       </c>
       <c r="B74">
-        <v>6770</v>
+        <v>12004</v>
       </c>
       <c r="C74">
         <v>63</v>
@@ -8304,31 +8307,31 @@
         <v>4</v>
       </c>
       <c r="F74">
-        <v>2671</v>
+        <v>2604</v>
       </c>
       <c r="G74">
         <v>198</v>
       </c>
       <c r="H74">
-        <v>2472</v>
+        <v>2406</v>
       </c>
       <c r="I74">
         <v>487</v>
       </c>
       <c r="J74">
-        <v>1278</v>
+        <v>1126</v>
       </c>
       <c r="K74">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="L74">
-        <v>630</v>
+        <v>398</v>
       </c>
       <c r="M74">
-        <v>1800</v>
+        <v>6006</v>
       </c>
       <c r="N74">
-        <v>1584</v>
+        <v>5790</v>
       </c>
       <c r="O74">
         <v>-2</v>
@@ -8337,58 +8340,162 @@
         <v>218</v>
       </c>
       <c r="Q74">
-        <v>471</v>
+        <v>1718</v>
       </c>
       <c r="R74">
-        <v>1127</v>
+        <v>1332</v>
       </c>
       <c r="S74">
-        <v>5643</v>
+        <v>10672</v>
       </c>
       <c r="T74">
         <v>0</v>
       </c>
       <c r="U74">
-        <v>-837</v>
+        <v>-1407</v>
       </c>
       <c r="V74">
-        <v>-813</v>
+        <v>-988</v>
       </c>
       <c r="W74">
-        <v>-24</v>
+        <v>-419</v>
       </c>
       <c r="X74">
-        <v>2379</v>
+        <v>2935</v>
       </c>
       <c r="Y74">
         <v>367</v>
       </c>
       <c r="Z74">
-        <v>2012</v>
+        <v>2568</v>
       </c>
       <c r="AA74">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="AB74">
-        <v>-32</v>
+        <v>14</v>
       </c>
       <c r="AC74">
-        <v>274</v>
+        <v>94</v>
       </c>
       <c r="AD74">
-        <v>3306</v>
+        <v>8343</v>
       </c>
       <c r="AE74">
-        <v>2335</v>
+        <v>7370</v>
       </c>
       <c r="AF74">
         <v>8</v>
       </c>
       <c r="AG74">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AH74">
-        <v>553</v>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75">
+        <v>5624</v>
+      </c>
+      <c r="C75">
+        <v>-13</v>
+      </c>
+      <c r="D75">
+        <v>-12</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>3971</v>
+      </c>
+      <c r="G75">
+        <v>-274</v>
+      </c>
+      <c r="H75">
+        <v>4245</v>
+      </c>
+      <c r="I75">
+        <v>-53</v>
+      </c>
+      <c r="J75">
+        <v>-1431</v>
+      </c>
+      <c r="K75">
+        <v>302</v>
+      </c>
+      <c r="L75">
+        <v>-1733</v>
+      </c>
+      <c r="M75">
+        <v>4407</v>
+      </c>
+      <c r="N75">
+        <v>4477</v>
+      </c>
+      <c r="O75">
+        <v>-17</v>
+      </c>
+      <c r="P75">
+        <v>-53</v>
+      </c>
+      <c r="Q75">
+        <v>-1257</v>
+      </c>
+      <c r="R75">
+        <v>1895</v>
+      </c>
+      <c r="S75">
+        <v>3729</v>
+      </c>
+      <c r="T75">
+        <v>-61</v>
+      </c>
+      <c r="U75">
+        <v>3903</v>
+      </c>
+      <c r="V75">
+        <v>1918</v>
+      </c>
+      <c r="W75">
+        <v>1985</v>
+      </c>
+      <c r="X75">
+        <v>84</v>
+      </c>
+      <c r="Y75">
+        <v>-2879</v>
+      </c>
+      <c r="Z75">
+        <v>2963</v>
+      </c>
+      <c r="AA75">
+        <v>120</v>
+      </c>
+      <c r="AB75">
+        <v>2</v>
+      </c>
+      <c r="AC75">
+        <v>119</v>
+      </c>
+      <c r="AD75">
+        <v>-1313</v>
+      </c>
+      <c r="AE75">
+        <v>1905</v>
+      </c>
+      <c r="AF75">
+        <v>-376</v>
+      </c>
+      <c r="AG75">
+        <v>-2842</v>
+      </c>
+      <c r="AH75">
+        <v>996</v>
       </c>
     </row>
   </sheetData>
